--- a/comp_assess.xlsx
+++ b/comp_assess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1084122\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B00E05-D936-4D95-B155-ED838D85597E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A2538-356E-439A-92CC-A83FFC7ED4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4181D48C-F933-470E-A75B-C67D30B4E52F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4181D48C-F933-470E-A75B-C67D30B4E52F}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenario" sheetId="2" r:id="rId1"/>
@@ -755,12 +755,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -776,15 +782,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -803,6 +806,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1120,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93039A54-3428-4A98-8786-DC208FCA86C4}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1133,71 +1141,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>175</v>
       </c>
       <c r="E6" s="1"/>
@@ -1218,20 +1226,20 @@
       <c r="C8" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B10" s="3">
@@ -1240,20 +1248,20 @@
       <c r="C10" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="65.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="3">
@@ -1262,7 +1270,7 @@
       <c r="C12" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E12" s="1"/>
@@ -1270,7 +1278,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
@@ -1284,7 +1292,7 @@
       <c r="C14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E14" s="1"/>
@@ -1318,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E56F39F-6D7F-4790-AD0D-0631FB4A1FB1}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1328,130 +1336,130 @@
     <col min="2" max="2" width="16.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.36328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.08984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.54296875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="52" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1462,16 +1470,16 @@
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1482,33 +1490,33 @@
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1516,45 +1524,45 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="52" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1565,16 +1573,16 @@
       <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1585,33 +1593,33 @@
       <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1619,45 +1627,45 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="52" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1668,16 +1676,16 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1688,33 +1696,33 @@
       <c r="D22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1722,45 +1730,45 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="52" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1771,16 +1779,16 @@
       <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1791,33 +1799,33 @@
       <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>67</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -1831,39 +1839,39 @@
       <c r="B31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -1874,16 +1882,16 @@
       <c r="D33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -1894,101 +1902,101 @@
       <c r="D34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="39" x14ac:dyDescent="0.3">
       <c r="D36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>84</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="39" x14ac:dyDescent="0.3">
       <c r="D37" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>85</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D38" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="39" x14ac:dyDescent="0.3">
       <c r="D39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -2002,39 +2010,39 @@
       <c r="B41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -2045,16 +2053,16 @@
       <c r="D43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -2065,50 +2073,50 @@
       <c r="D44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="52" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="D46" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>92</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -2119,13 +2127,13 @@
       <c r="D47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>95</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -2136,13 +2144,13 @@
       <c r="D48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>98</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -2153,13 +2161,13 @@
       <c r="D49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="4" t="s">
         <v>101</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -2173,22 +2181,22 @@
       <c r="B51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -2202,10 +2210,10 @@
       <c r="F52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -2216,16 +2224,16 @@
       <c r="D53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -2236,16 +2244,16 @@
       <c r="D54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -2259,10 +2267,10 @@
       <c r="F55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -2273,13 +2281,13 @@
       <c r="D56" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="4" t="s">
         <v>107</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -2290,13 +2298,13 @@
       <c r="D57" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="4" t="s">
         <v>125</v>
       </c>
       <c r="I57" s="1" t="s">
@@ -2307,13 +2315,13 @@
       <c r="D58" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="4" t="s">
         <v>126</v>
       </c>
       <c r="I58" s="1" t="s">
@@ -2324,13 +2332,13 @@
       <c r="D59" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="4" t="s">
         <v>127</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -2341,13 +2349,13 @@
       <c r="D60" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="4" t="s">
         <v>128</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -2361,10 +2369,10 @@
       <c r="F61" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="4" t="s">
         <v>101</v>
       </c>
       <c r="I61" s="1" t="s">
@@ -2375,13 +2383,13 @@
       <c r="D62" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="4" t="s">
         <v>129</v>
       </c>
       <c r="I62" s="1" t="s">
@@ -2392,13 +2400,13 @@
       <c r="D63" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="4" t="s">
         <v>128</v>
       </c>
       <c r="I63" s="1" t="s">
@@ -2412,10 +2420,10 @@
       <c r="F64" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="4" t="s">
         <v>101</v>
       </c>
       <c r="I64" s="1" t="s">
@@ -2429,22 +2437,22 @@
       <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I66" s="1" t="s">
@@ -2458,10 +2466,10 @@
       <c r="F67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -2472,16 +2480,16 @@
       <c r="D68" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I68" s="1" t="s">
@@ -2492,16 +2500,16 @@
       <c r="D69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I69" s="1" t="s">
@@ -2515,10 +2523,10 @@
       <c r="F70" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -2529,13 +2537,13 @@
       <c r="D71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="4" t="s">
         <v>135</v>
       </c>
       <c r="I71" s="1" t="s">
@@ -2549,22 +2557,22 @@
       <c r="B73" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I73" s="1" t="s">
@@ -2578,10 +2586,10 @@
       <c r="F74" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -2592,16 +2600,16 @@
       <c r="D75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I75" s="1" t="s">
@@ -2612,16 +2620,16 @@
       <c r="D76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I76" s="1" t="s">
@@ -2635,10 +2643,10 @@
       <c r="F77" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -2649,13 +2657,13 @@
       <c r="D78" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="4" t="s">
         <v>141</v>
       </c>
       <c r="I78" s="1" t="s">
@@ -2666,25 +2674,25 @@
       <c r="A80" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I80" s="1" t="s">
@@ -2698,10 +2706,10 @@
       <c r="F81" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I81" s="1" t="s">
@@ -2712,16 +2720,16 @@
       <c r="D82" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I82" s="1" t="s">
@@ -2732,16 +2740,16 @@
       <c r="D83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I83" s="1" t="s">
@@ -2755,10 +2763,10 @@
       <c r="F84" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I84" s="1" t="s">
@@ -2769,13 +2777,13 @@
       <c r="D85" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="4" t="s">
         <v>147</v>
       </c>
       <c r="I85" s="1" t="s">
@@ -2786,13 +2794,13 @@
       <c r="D86" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H86" s="4" t="s">
         <v>150</v>
       </c>
       <c r="I86" s="1" t="s">
@@ -2803,25 +2811,25 @@
       <c r="A88" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>152</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -2835,10 +2843,10 @@
       <c r="F89" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -2849,16 +2857,16 @@
       <c r="D90" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -2869,16 +2877,16 @@
       <c r="D91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H91" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I91" s="1" t="s">
@@ -2892,10 +2900,10 @@
       <c r="F92" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -2909,10 +2917,10 @@
       <c r="F93" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="4" t="s">
         <v>155</v>
       </c>
       <c r="I93" s="1" t="s">
@@ -2926,10 +2934,10 @@
       <c r="F94" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="4" t="s">
         <v>158</v>
       </c>
       <c r="I94" s="1" t="s">
@@ -2940,13 +2948,13 @@
       <c r="D95" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H95" s="4" t="s">
         <v>162</v>
       </c>
       <c r="I95" s="1" t="s">
@@ -2960,10 +2968,10 @@
       <c r="F96" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H96" s="4" t="s">
         <v>165</v>
       </c>
       <c r="I96" s="1" t="s">
@@ -2983,16 +2991,16 @@
       <c r="D98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I98" s="1" t="s">
@@ -3006,10 +3014,10 @@
       <c r="F99" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I99" s="1" t="s">
@@ -3020,16 +3028,16 @@
       <c r="D100" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I100" s="1" t="s">
@@ -3040,16 +3048,16 @@
       <c r="D101" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G101" s="5" t="s">
+      <c r="G101" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I101" s="1" t="s">
@@ -3063,10 +3071,10 @@
       <c r="F102" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I102" s="1" t="s">
@@ -3080,10 +3088,10 @@
       <c r="F103" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G103" s="5" t="s">
+      <c r="G103" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="4" t="s">
         <v>171</v>
       </c>
       <c r="I103" s="1" t="s">
@@ -3133,7 +3141,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3148,76 +3156,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="13" t="s">
         <v>225</v>
       </c>
       <c r="I6" s="1"/>
@@ -3249,7 +3257,7 @@
       <c r="E8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>178</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3264,7 +3272,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -3285,7 +3293,7 @@
       <c r="E10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -3300,7 +3308,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3318,10 +3326,10 @@
       <c r="D12" s="1">
         <v>1.5</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>186</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -3357,7 +3365,7 @@
       <c r="E14" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>187</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -3382,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A469DD16-2155-4C93-9342-50FC641710FD}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3397,87 +3405,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3486,15 +3494,15 @@
       <c r="C8" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3503,15 +3511,15 @@
       <c r="C9" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3520,15 +3528,15 @@
       <c r="C10" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3537,15 +3545,15 @@
       <c r="C11" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3554,15 +3562,15 @@
       <c r="C12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3571,15 +3579,15 @@
       <c r="C13" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3588,15 +3596,15 @@
       <c r="C14" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3605,10 +3613,10 @@
       <c r="C15" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3620,11 +3628,11 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
